--- a/files/data_preprocessing.xlsx
+++ b/files/data_preprocessing.xlsx
@@ -504,11 +504,7 @@
           <t>Сбер — лучший работодатель России. У нас более 60 компаний экосистемы и 14 тысяч подразделений по всей стране. Мы ищем старшего менеджера по сопровождению клиентов. Его главная задача – помогать клиентам с оформлением продуктов и услуг Сбера и экосистемы, а также консультировать по возникающим вопросам. Эта вакансия для тех, кто хочет развивать навыки эффективных продаж и стоить карьеру в банковской сфере. Эта работа подойдет тебе если ты: · специалист со средним профессиональным, неполным высшим или высшим образованием · имеешь опыт работы в сфере продаж, обслуживания и консультирования клиентов от 6 месяцев · доброжелателен и готов помогать клиентам.   Тебе предстоит:   · предлагать продукты и услуги Сбера · консультировать клиентов по возникающим вопросам · помогать клиентам оформлять услуги и необходимые для них документы · совершать транзакционные операции в рамках оформления продаж и постпродажного сопровождения клиентов · вести базы клиентов.   Работа в Сбере – это:  · стабильный оклад и социальная поддержка сотрудников · официальное оформление с первого дня · расширенный ДМС с первого дня и льготное страхование для близких · корпоративное обучение в Виртуальной школе Сбера · бесплатная подписка СберПрайм+, скидки на продукты компаний-партнеров · корпоративная пенсионная программа · ипотека выгоднее на 4% для каждого сотрудника.   Присоединяйся к команде старших клиентских менеджеров Сбера!АтмосфераРабота в Сбере – это:Обучение за счет ком</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>другое</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>менеджер</t>
@@ -549,14 +545,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Мы повысили заработную плату !!!!!!!!!! Логистика – одно из главных направлений в компании «Магнит». Уже более четверти века у нас всё в порядке!   Работа с нами — это:    достойная своевременная зарплата, два раза в месяц. платим гарантированный оклад плюс премию: влияй на свой доход! удобный график: 4/2, 5/5, 6/3 , 4/4 курсы безопасного и экономичного вождения за наш счёт. собственные ремзоны на каждом АТП. вводим в курс дела, даём наставника. бесплатные медосмотры. оформление карт тахографа за счёт компании. выплаты за экономию топлива. акция «Приведи друга» - возможность дополнительного заработка. возможность проявить себя: участвуй в конкурсах профессионального мастерства! полное соблюдение требований ТК РФ    Комфортные условия труда:    удобная спецодежда и защитная обувь. Комплекты для зимы: два вида тёплых курток и обуви (для суровых заморозков и на время оттепели), комбинезон и перчатки. На лет</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>другое</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Мы повысили заработную плату !!!!!!!!!! Логистика – одно из главных направлений в компании «Магнит». Уже более четверти века у нас всё в порядке!   Работа с нами — это:    достойная своевременная зарплата, два раза в месяц. платим гарантированный оклад плюс премию: влияй на свой доход! удобный график: 4/2, 5/5, 6/3 , 4/4 курсы безопасного и экономичного вождения за наш счёт. собственные ремзоны на каждом АТП. вводим в курс дела, даём наставника. бесплатные медосмотры. оформление карт тахографа за счёт компании. выплаты за экономию топлива. акция «Приведи друга» - возможность дополнительного заработка. возможность проявить себя: участвуй в конкурсах профессионального мастерства! полное соблюдение требований ТК РФ    Комфортные условия труда:    удобная спецодежда и защитная обувь. Комп</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>водитель</t>
@@ -597,14 +589,10 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Мы повысили заработную плату !!!!!!!!!! Логистика – одно из главных направлений в компании «Магнит». Уже более четверти века у нас всё в порядке! Работа с нами — это:  достойная своевременная зарплата, два раза в месяц. платим гарантированный оклад плюс премию: влияй на свой доход! удобный график: 20/10, 25/5, 28/14, 30/15 курсы безопасного и экономичного вождения за наш счёт. собственные ремзоны на каждом АТП. вводим в курс дела, даём наставника. бесплатные медосмотры. оформление карт тахографа за счёт компании. выплаты за экономию топлива. акция «Приведи друга» - возможность дополнительного заработка. возможность проявить себя: участвуй в конкурсах профессионального мастерства! полное соблюдение требований ТК РФ    Комфортные условия труда:    удобная спецодежда и защитная обувь. Комплекты для зимы: два вида тёплых курток и обуви (для суровых заморозков и на время оттепели), комбинезон и перчатки. На лето – комбинезон, куртка, обувь, перчатки. корпоративная связь. выдаём планшеты с корпоративной связью для помощи в пути. оказываем оперативную помощь на дорогах. возможно проживание на территории в комнате отдыха для водителей    Обязанности. Что нужно делать?    доставлять товары на автомобилях MAN. С нас: ремонт автомобиля и чёткие задачи. ценить машину как свою.    Требования.    нам неважно, какой у тебя официальный стаж работы, мы ценим и развиваем талантливых водителей.    Достаточно стать частью логистики «Магнита», чтобы…    всё было в порядке. найти крепкую и надёжную команду. обеспечить свое материальное благополучие. работать в компании – мировом лидере по эксплуатации MAN. стать частью самой крупной логистической компании в стране: более 39 тысяч. сотрудников, порядка 5,5 тысяч грузовиков, 39 распределительных центров и 37 автотранспортных предпр</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>другое</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Мы повысили заработную плату !!!!!!!!!! Логистика – одно из главных направлений в компании «Магнит». Уже более четверти века у нас всё в порядке! Работа с нами — это:  достойная своевременная зарплата, два раза в месяц. платим гарантированный оклад плюс премию: влияй на свой доход! удобный график: 20/10, 25/5, 28/14, 30/15 курсы безопасного и экономичного вождения за наш счёт. собственные ремзоны на каждом АТП. вводим в курс дела, даём наставника. бесплатные медосмотры. оформление карт тахографа за счёт компании. выплаты за экономию топлива. акция «Приведи друга» - возможность дополнительного заработка. возможность проявить себя: участвуй в конкурсах профессионального мастерства! полное соблюдение требований ТК РФ    Комфортные условия труда:    удобная спецодежда и защитная обувь. Комплекты для зимы: два ви</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>водитель</t>
@@ -645,14 +633,10 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Сбер — лучший работодатель России. У нас более 60 компаний экосистемы и 14 тысяч подразделений по всей стране. Присоединяйся к команде малого бизнеса Сбера! На позиции «Менеджера по работе с ключевыми клиентами» ты будешь общаться с предпринимателями и руководителями компаний малого бизнеса и предлагать лучшие решения от Сбера. Эта вакансия для энергичных и общительных людей, готовых вникать в тонкости бизнеса наших клиентов. Мы поможем тебе освоить специальность, сформируем для тебя базу клиентов, предоставим возможности карьерного роста. Тебе предстоит:  развивать бизнес клиентов из закрепленной базы, предлагая продукты и услуги Сбера проводить переговоры с клиентами на территории компаний-партнеров привлекать новых</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>другое</t>
-        </is>
-      </c>
+          <t xml:space="preserve">  Сбер — лучший работодатель России. У нас более 60 компаний экосистемы и 14 тысяч подразделений по всей стране. Присоединяйся к команде малого бизнеса Сбера! На позиции «Менеджера по работе с ключевыми клиентами» ты будешь общаться с предпринимателями и руководителями компаний малого бизнеса и предлагать лучшие решения от Сбера. Эта вакансия для энергичных и общительных людей, готовых вникать в тонкости бизнеса наших клиентов. Мы поможем тебе освоить специальность, сформируем для тебя базу клиентов, предоставим возможности карьерного роста. Тебе предстоит:  развивать бизнес клиентов из закрепленной базы, предлагая продукты и услуги Сбера проводить переговоры с клиентами на территории компаний-партнеров привлекать новых клиентов на об</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>менеджер</t>
@@ -693,14 +677,10 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Сбер — это 14 тысяч подразделений и лучший работодатель России по версии hh.   Старшие менеджеры по обслуживанию в Сбере – это специалисты, которые проводят операции клиентов в кассе: помогают обменивать деньги, принимают и выдают наличные.   Эта работа подойдет тебе если ты:   · ищешь работу на неполный день или дополнительный заработок к основной работе · хочешь построить карьеру в банковской сфере · ищешь работу с возможностью карьерного перемещения по всей стране · специалист со средним профессиональным, неполным высшим или высшим образованием · хочешь работать в надежной компании · имеешь опыт работы в сфере продаж, обслуживания и консультирования клиентов от полугода.   Тебе предстоит:   · работать в отделении офиса Сбера · проводить кассовые операции: прием, выдача, обмен денег · предлагать продукты и сервисы Сбера · консультировать клиентов по возникающим вопросам.   Работа в Сбере – это:   · стабильный оклад и социальная поддержка сотрудников · возможность выбрать удобный график работы · дополнительный доход ежемесячно · возможностью совмещать работу с другой занятостью и увлечениями · официальное оформление · расширенная пенсионная программа · бесплатная подписка СберПрайм+ и скидки на продукты компаний-партнеров · оплачиваемая мобильная связь: 150 минут и 3 ГБ интернета Сбермобайла · ипотека выгоднее на 4%.   Присоединяйся к команде Сбера!    АтмосфераРабота в Сбере – это:Обучение за счет компании: онлайн курсы в Виртуальной школе Сбера, возможность получить новую квалификациюРеферальная программа для сотрудников: пригласи в команду знакомых профессионалов и получи свое вознаграждение до 100 тыс. рублейКурсы для будущих родителей, материальная поддержка молодых мам, детский отдых и подарки за счет компанииКорпоративная пенсионная программаДелай мир лучше со СберомЗадайте вопрос работодателюОн получит его с откликом на вакансиюГде располагается</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>другое</t>
-        </is>
-      </c>
+          <t>Сбер — это 14 тысяч подразделений и лучший работодатель России по версии hh.   Старшие менеджеры по обслуживанию в Сбере – это специалисты, которые проводят операции клиентов в кассе: помогают обменивать деньги, принимают и выдают наличные.   Эта работа подойдет тебе если ты:   · ищешь работу на неполный день или дополнительный заработок к основной работе · хочешь построить карьеру в банковской сфере · ищешь работу с возможностью карьерного перемещения по всей стране · специалист со средним профессиональным, неполным высшим или высшим образованием · хочешь работать в надежной компании · имеешь опыт работы в сфере продаж, обслуживания и консультирования клиентов от полугода.   Тебе предстоит:   · работать в отделении офиса Сбера · проводить кассовые операции: прием, выдача, обмен денег · предлагать продукты и сервисы Сбера · консультировать клиентов по возникающим вопросам.   Работа в Сбере – это:   · стабильный оклад и социальная поддержка сотрудников · возможность выбрать удобный график работы · дополнительный доход ежемесячно · возможностью совмещать работу с другой занятостью и увлечениями · официальное оформление · расширенная пенсионная программа · бесплатная подписка СберПрайм+ и скидки на продукты компаний-партнеров · оплачиваемая мобильная связь: 150 минут и 3 ГБ интернета Сбермобайла · ипотека выгоднее на 4%.   Присоединяйся к команде Сбера!    АтмосфераРабота в Сбере – это:Обучение за счет компании: онлайн курсы в Виртуальной школе Сбера, возможность получить новую квалификациюРеферальная программа для сотрудников: пригласи в команду знакомых профессионалов и получи свое вознаграждение до 100 тыс. рублейКурсы для будущих родителей, материальная поддержка молодых мам, детский отдых и подарки за счет компанииКорпоративная пенсионная программаДелай мир лучше со СберомЗадайте вопрос работодателюОн получит его с откликом на вакансиюГде располагается место работы?Какой график работы?Вакансия открыта?Какая оплата труда?Как с вами связаться?Другой вопросАдресПокрово-МарфиноПоказать на большой карте</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>менеджер</t>
@@ -744,11 +724,7 @@
           <t>Требования к умениям:- работать на компьютере, в том числе в сети Интернет;- работать в информационно-правовых системах.Функции:Ведение делопроизводства комитета.Ведение кадрового делопроизводства в комитете.Задайте вопрос работодателюОн получит его с откликом на вакансиюГде располагается место работы?Какой график работы?Вакансия открыта?Какая оплата труда?Как с вами связаться?Другой вопросАдресТамбов, Коммунальная улица, 6Показать на большой карте</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>другое</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>другое</t>
@@ -837,14 +813,10 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Описание работодателя: ТОГУП "Водное и газовое хозяйство" приглашает на работу секретаря Опыт работы приветствуется. График 5/2 с 08:00 до 17:00. Обязанности:  прием входящей корреспонденции, подготовка документов на подпись руководителю, распределение документооборота, контроль за сроками исполнения поручений руководителя. Требования:  базовые знания офисных программ, ответственность, внимательность, грамотность, дисциплинированн</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>другое</t>
-        </is>
-      </c>
+          <t>Описание работодателя: ТОГУП "Водное и газовое хозяйство" приглашает на работу секретаря Опыт работы приветствуется. График 5/2 с 08:00 до 17:00. Обязанности:  прием входящей корреспонденции, подготовка документов на подпись руководителю, распределение документооборота, контроль за сроками исполнения поручений руководителя. Требования:  базовые знания офисных программ, ответственность, внимательность, грамотность, дисциплинированность  Задайте вопрос работодателюОн получит его с откликом на вакансиюГде располагается место работы?Какой график работы?Вакансия открыта?Какая оплата труда?Как с вами связаться?Другой вопросАдресТамбов, Студенецкая улица, 3Показать на большой карте</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>другое</t>
@@ -1077,7 +1049,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AstraLab - одна из самых инновационных компаний российского рекламного рынка. Мы первые в России и четвертые в мире научились интегрировать рекламу в фото на базе компьютерного зрения. У нас есть собственная технология AstraVision: компьютерное зрение + обработка языка и текстов. Мы также сотрудничаем с крупнейшим селлером рекламы в стране - ИМХО. С 2018 года мы работаем с клиентами по всему миру и сотрудничаем с крупнейшими сетевыми агентствами (GroupM, BBDO, Dentsu Aegis Network, Publicis Groupe) и брендами (Audi, Lexus, Honda, Pepsi, Nestle, Red Bull, Asus, P&amp;G, Schwarzkopf и др.) Компания Astralab ищет амбициозного Frontend разработчика, который хочет принять участие в создании уникальных и инновационных продуктов. Если вы любите работать с современными технологиями и инструментами, и хотите развиваться в компании с динамичным ростом и высокими стандартами качества, то эта вакансия для вас. Обязанности  Разработка веб-приложений; Оптимизация и модернизация существующих решений; Проведение тестирования; Решение технических вопросов по интеграции продуктов.  Ожидания  Знания JavaScript; Опыт работы с vue.js (vuex, vue router); Знание основных принципов ООП и шаблонов проектирования; Знание HTML5, CSS3, семантическая разметка; Умение работы с веб-шрифтами; Опыт работы с Git.  Плюсом будет  Использование CSS препроцессоров (SASS / LESS / Stylus / PostCSS) или CSS Modules; Использование инструментов линтинга (eslint) и форматинга (prettier). Умение их настраивать и понимание принципов работы; Опыт работы с высоконагруженными проектами; Опыт работы со сборщиками проектов (Webpack, Gulp).  Условия  Дружная молодая команда и лёгкая коммуникация: мы не придерживаемся иерархии в управлении продуктом, ценим открытое командное взаимодействие, общаемся и дружим вне работы. Интересные задачи в передовых продуктах: наши продукты являются передовыми на рынке, поэтому перед командой разработки часто ставятся сложные задачи, требующие неординарного подхода. Акцент на качестве кода и производительности: мы считаем, что залог эффективности продукта — качественный код, поэтому используем методику гибкого код ревью. Профессиональный рост и реализация идей: мы поощряем инициативу в команде и помогаем в развитии навыков и идей. Удобный график в офисе: с понедельника по пятницу, гибкие начало и окончание рабочего дня. Оформление: мы соблюдаем трудовое законодательство, официально оформляем на работу и предоставляем все гарантии по ТК РФ (отпуск, больничные и т.п.)     Ключевые навыкиJavaScriptHTML5CSS3Vue.jsЗад</t>
+          <t>AstraLab - одна из самых инновационных компаний российского рекламного рынка. Мы первые в России и четвертые в мире научились интегрировать рекламу в фото на базе компьютерного зрения. У нас есть собственная технология AstraVision: компьютерное зрение + обработка языка и текстов. Мы также сотрудничаем с крупнейшим селлером рекламы в стране - ИМХО. С 2018 года мы работаем с клиентами по всему миру и сотрудничаем с крупнейшими сетевыми агентствами (GroupM, BBDO, Dentsu Aegis Network, Publicis Groupe) и брендами (Audi, Lexus, Honda, Pepsi, Nestle, Red Bull, Asus, P&amp;G, Schwarzkopf и др.) Компания Astralab ищет амбициозного Frontend разработчика, который хочет принять участие в создании уникальных и инновационных продуктов. Если вы любите работать с современными технологиями и инструментами, и хотите развиваться в компании с динамичным ростом и высокими стандартами качества, то эта вакансия для вас. Обязанности  Разработка веб-приложений; Оптимизация и модернизация существующих решений; Проведение тестирования; Решение технических вопросов по интеграции продуктов.  Ожидания  Знания JavaScript; Опыт работы с vue.js (vuex, vue router); Знание основных принципов ООП и шаблонов проектирования; Знание HTML5, CSS3, семантическая разметка; Умение работы с веб-шрифтами; Опыт работы с Git.  Плюсом будет  Использо</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1269,14 +1241,10 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>У нас полный цикл производства сувенирной продукции. Еженедельно отгружаемся на Wildberries и Ozon. Много ручной работы - сборка, сортировка, накрутка, упаковка. Требуется скорость, аккуратность и внимательность. Есть склад - надо понимать, что, где лежит и в каком количестве. Всё фиксируется в простых эксельках - будет плюсом, если вы шарите в табличках и любите п</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>другое</t>
-        </is>
-      </c>
+          <t>У нас полный цикл производства сувенирной продукции. Еженедельно отгружаемся на Wildberries и Ozon. Много ручной работы - сборка, сортировка, накрутка, упаковка. Требуется скорость, аккуратность и внимательность. Есть склад - надо понимать, что, где лежит и в каком количестве. Всё фиксируется в простых эксельках - будет плюсом, если вы шарите в табличках и любите порядок и структуру. Научим формироваь поставки на ВБ и Озон. Пару раз в неделю надо будет сделать отгрузку в траспортную компанию или отъехать по рабочим вопросам. Поэтому наличие своей машины обязательно. Бензин оплачивается. При желании можем научить работать на оборудовании и в принципе погрузить целиком в процесс, если будет интересно развиваться и расти в зарплате. У нас небольшой коллектив, комфортное для работы помещение в районе Ашана. Зимой тепло, летом прохладно, чай/кофе и печеньки. Зарплата каждую неделю без задержек. Оплачиваемая стажировка. График с 9ти до 18ти с перерывом на обед. Среда и воскресенье выходные.Задайте вопрос работодателюОн получит его с откликом на вакансиюГде располагается место работы?Какой график работы?Вакансия открыта?Какая оплата труда?Как с вами связаться?Другой вопросАдресТамбов, Советская улица, 189БПоказать на большой карте</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>другое</t>
@@ -1317,7 +1285,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Обязанности:  Ведение кадрового делопроизводства в полном объеме - 50 чел. Ведение воинского учета; Работа с персональными данными; Ведение штатного расписания, составление, изменение; Подготовка справок, копий трудовых книжек и др. документов с места работы по запросу работников, в т.ч. для работников, выходящих на пенсию по возрасту и досрочно; Ведение табеля учета рабочего времени Подготовка и сдача отчетности: в СФР, сведения в службу занятости населения, в Росстат; Консультация руководства и специалистов учреждения по вопросам, касающихся трудового законодательства; Отчётность с использованием программы Контур-Экстерн. Прием документов и личных заявлений на подпись директору, составление писем, запросов, других документов, подготовка ответов авторам писем по поручению директора. Ведение отдельных служебных поручений директора; Доведение до сведения работников организационных, распорядительных и кадровых документов; Прием больничных листов;  Требования:  Желательно высшее образование, дополнительная подготовка по направлению; Опыт работы от 3-х лет по настоящее время в аналогичной должности по всем кадровым процессам; Отличное знание Трудового кодекса РФ, нормативных актов; Знание изменений и требований к отчетности, предъявляемые в настоящее время; Желание работать и развиваться в своей профессии; Усидчивость, внимательность, высокая степень ответственности, оперативность, скрупулёзность, стрессоустойчивость, коммуникабельность, честность и открытость; Грамотная устная и письменная речь.  Условия:  Оформление по ТК РФ, полный соц. пакет; График работы: 5/2, с 8:30 до 17:30 с перерывом на обед. Суббота и воскресенье - выходной день; Стабильная заработная плата, выплаты 2 раза в месяц. Ключевые навыкиПользователь ПККадровое делопроизводствоТрудовое законодательство РФУверенный пользователь ПКОтчетностьЗнание трудового законодательстваГрамотная устная и письменная речьТабель учета рабочего времениДеловая перепискаЗадайте вопрос работодателюОн получит его с откликом на вакансиюГде располагается место работы?Какой график работы?Вакансия открыта?Какая оплата труда?Как с вами связаться?Другой вопросАдресТамбов, улица Монтажников, 1Показать на большой карте</t>
+          <t>Обязанности:  Ведение кадрового делопроизводства в полном объеме - 50 чел. Ведение воинского учета; Работа с персональными данными; Ведение штатного расписания, составление, изменение; Подготовка справок, копий трудовых книжек и др. документов с места работы по запросу работников, в т.ч. для работников, выходящих на пенсию по возрасту и досрочно; Ведение табеля учета рабочего времени Подготовка и сдача отчетности: в СФР, сведения в службу занятости населения, в Росстат; Консультация руководства и специалистов учреждения по вопросам, касающихся трудового законодательства; Отчётность с использованием программы Контур-Экстерн. Прием документов и личных заявлений на подпись директору, составление писем, запросов, других документов, подготовка ответов авторам писем по поручению директора. Ведение отдельных служебных поручений директора; Доведение до сведения работников организационных, распорядительных и кадровых документов; Прием больничных листов;  Требования:  Желательно высшее образование, дополнительная подготовка по направлению; Опыт работы от 3-х лет по настоящее время в аналогичной должности по всем кадровым процессам; Отличное знание Трудового кодекса РФ, нормативных актов; Знание изменений и требований к отчетности, предъявляемые в настоящее время; Желание работать и развиваться в своей</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
